--- a/data/trans_orig/P19C11_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P19C11_2023-Provincia-trans_orig.xlsx
@@ -551,7 +551,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según si el motivo por su última visita al dentista fue por implantes / solo 2023 en 2023 (tasa de respuesta: 99,54%)</t>
+          <t>Población según si el motivo por su última visita al dentista fue por implantes en 2023 (tasa de respuesta: 99,54%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P19C11_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P19C11_2023-Provincia-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>22284</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>15027</v>
+        <v>15061</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>30962</v>
+        <v>32067</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07405207036724278</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04993834699581865</v>
+        <v>0.05005079347241352</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1028914083877002</v>
+        <v>0.106564274850263</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>36</v>
@@ -762,19 +762,19 @@
         <v>18675</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>13063</v>
+        <v>13237</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>25285</v>
+        <v>25703</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.06034547116237594</v>
+        <v>0.06034547116237593</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04221028097340465</v>
+        <v>0.04277339957809691</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08170696700127927</v>
+        <v>0.08305675837458591</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>64</v>
@@ -783,19 +783,19 @@
         <v>40958</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>32007</v>
+        <v>31615</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>52654</v>
+        <v>52300</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06710280803729513</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0524374619681806</v>
+        <v>0.05179604110201926</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08626484384583076</v>
+        <v>0.08568338925106725</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>278633</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>269955</v>
+        <v>268850</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>285890</v>
+        <v>285856</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9259479296327573</v>
+        <v>0.9259479296327575</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8971085916122999</v>
+        <v>0.893435725149737</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9500616530041813</v>
+        <v>0.9499492065275866</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>495</v>
@@ -833,19 +833,19 @@
         <v>290789</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>284179</v>
+        <v>283761</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>296401</v>
+        <v>296227</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9396545288376241</v>
+        <v>0.9396545288376239</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9182930329987207</v>
+        <v>0.916943241625414</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9577897190265955</v>
+        <v>0.9572266004219031</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>784</v>
@@ -854,19 +854,19 @@
         <v>569423</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>557727</v>
+        <v>558081</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>578374</v>
+        <v>578766</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9328971919627049</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9137351561541688</v>
+        <v>0.9143166107489328</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9475625380318189</v>
+        <v>0.9482039588979811</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>14346</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7420</v>
+        <v>7496</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>24535</v>
+        <v>24499</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0276939162892679</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01432435350099418</v>
+        <v>0.01447079127010985</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.047362188124439</v>
+        <v>0.04729243138666676</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>21</v>
@@ -979,19 +979,19 @@
         <v>14666</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>9713</v>
+        <v>9749</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>22486</v>
+        <v>22208</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.02758778578560752</v>
+        <v>0.02758778578560751</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01827062226775921</v>
+        <v>0.01833850970291589</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04229857164937042</v>
+        <v>0.04177452020374974</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>33</v>
@@ -1000,19 +1000,19 @@
         <v>29012</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>20861</v>
+        <v>19792</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>41175</v>
+        <v>40591</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.02764016431799415</v>
+        <v>0.02764016431799416</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0198748187558115</v>
+        <v>0.0188556053198319</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03922731154066938</v>
+        <v>0.03867141713171666</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>503682</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>493493</v>
+        <v>493529</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>510608</v>
+        <v>510532</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.972306083710732</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.952637811875561</v>
+        <v>0.9527075686133332</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9856756464990059</v>
+        <v>0.9855292087298901</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>675</v>
@@ -1050,19 +1050,19 @@
         <v>516946</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>509126</v>
+        <v>509404</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>521899</v>
+        <v>521863</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9724122142143925</v>
+        <v>0.9724122142143923</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9577014283506301</v>
+        <v>0.9582254797962504</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9817293777322409</v>
+        <v>0.9816614902970839</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1034</v>
@@ -1071,19 +1071,19 @@
         <v>1020628</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1008465</v>
+        <v>1009049</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1028779</v>
+        <v>1029848</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9723598356820058</v>
+        <v>0.9723598356820061</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9607726884593309</v>
+        <v>0.9613285828682833</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9801251812441886</v>
+        <v>0.9811443946801681</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>12115</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7164</v>
+        <v>7641</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>18542</v>
+        <v>20343</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04035222995325887</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02386289454018509</v>
+        <v>0.02544974290660618</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06175966924411219</v>
+        <v>0.06775938792033438</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>27</v>
@@ -1196,19 +1196,19 @@
         <v>15453</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>10800</v>
+        <v>10462</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>22473</v>
+        <v>22284</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04522410435827218</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03160748865298096</v>
+        <v>0.03061833234957963</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06576627392459732</v>
+        <v>0.06521298348187486</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>44</v>
@@ -1217,19 +1217,19 @@
         <v>27568</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>19787</v>
+        <v>20639</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>36194</v>
+        <v>36394</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04294554784168455</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03082390332360242</v>
+        <v>0.03215107845085599</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05638193473020201</v>
+        <v>0.05669457338928638</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>288116</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>281689</v>
+        <v>279888</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>293067</v>
+        <v>292590</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9596477700467411</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9382403307558879</v>
+        <v>0.9322406120796662</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9761371054598148</v>
+        <v>0.974550257093394</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>490</v>
@@ -1267,19 +1267,19 @@
         <v>326252</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>319232</v>
+        <v>319421</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>330905</v>
+        <v>331243</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9547758956417282</v>
+        <v>0.9547758956417279</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9342337260754024</v>
+        <v>0.9347870165181249</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9683925113470188</v>
+        <v>0.9693816676504202</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>818</v>
@@ -1288,19 +1288,19 @@
         <v>614367</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>605741</v>
+        <v>605541</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>622148</v>
+        <v>621296</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9570544521583154</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9436180652697981</v>
+        <v>0.9433054266107137</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9691760966763976</v>
+        <v>0.9678489215491439</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>8617</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3647</v>
+        <v>3905</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>18617</v>
+        <v>17720</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.02324234291204903</v>
+        <v>0.02324234291204904</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.009835868128096789</v>
+        <v>0.0105336683238061</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05021582887318544</v>
+        <v>0.04779526335438828</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>10</v>
@@ -1413,19 +1413,19 @@
         <v>6046</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3140</v>
+        <v>3054</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>10764</v>
+        <v>11517</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01440750764094099</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.007484052531119358</v>
+        <v>0.007279076052198474</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02565158578803787</v>
+        <v>0.02744615714262123</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>18</v>
@@ -1434,19 +1434,19 @@
         <v>14662</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>8740</v>
+        <v>8303</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>26229</v>
+        <v>24531</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.0185517539549345</v>
+        <v>0.01855175395493451</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01105861737502085</v>
+        <v>0.01050590667359257</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03318696133999417</v>
+        <v>0.03103831180483338</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>362121</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>352121</v>
+        <v>353018</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>367091</v>
+        <v>366833</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9767576570879509</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9497841711268147</v>
+        <v>0.952204736645612</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9901641318719032</v>
+        <v>0.9894663316761939</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>584</v>
@@ -1484,19 +1484,19 @@
         <v>413567</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>408849</v>
+        <v>408096</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>416473</v>
+        <v>416559</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9855924923590592</v>
+        <v>0.9855924923590588</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9743484142119619</v>
+        <v>0.9725538428573788</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9925159474688805</v>
+        <v>0.9927209239478012</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>864</v>
@@ -1505,19 +1505,19 @@
         <v>775689</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>764122</v>
+        <v>765820</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>781611</v>
+        <v>782048</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9814482460450654</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9668130386600058</v>
+        <v>0.9689616881951675</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9889413826249792</v>
+        <v>0.9894940933264077</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>21086</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>14057</v>
+        <v>14218</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>29438</v>
+        <v>29113</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1113923683590654</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07425576145868545</v>
+        <v>0.07510847107965733</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1555089022687966</v>
+        <v>0.1537947858730416</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>59</v>
@@ -1630,19 +1630,19 @@
         <v>23903</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>18402</v>
+        <v>18463</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>29843</v>
+        <v>30499</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.1087476538334233</v>
+        <v>0.1087476538334232</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0837204921446604</v>
+        <v>0.0839975399180322</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1357739885921333</v>
+        <v>0.1387575057650607</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>89</v>
@@ -1651,19 +1651,19 @@
         <v>44989</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>36399</v>
+        <v>36521</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>55130</v>
+        <v>55298</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.109971416946507</v>
+        <v>0.1099714169465069</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08897374638504579</v>
+        <v>0.08927074956193412</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1347598682662848</v>
+        <v>0.1351705037025686</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>168213</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>159861</v>
+        <v>160186</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>175242</v>
+        <v>175081</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8886076316409346</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8444910977312035</v>
+        <v>0.8462052141269584</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9257442385413145</v>
+        <v>0.9248915289203428</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>418</v>
@@ -1701,19 +1701,19 @@
         <v>195899</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>189959</v>
+        <v>189303</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>201400</v>
+        <v>201339</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8912523461665767</v>
+        <v>0.8912523461665768</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8642260114078667</v>
+        <v>0.8612424942349391</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9162795078553396</v>
+        <v>0.9160024600819678</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>651</v>
@@ -1722,19 +1722,19 @@
         <v>364112</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>353971</v>
+        <v>353803</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>372702</v>
+        <v>372580</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8900285830534931</v>
+        <v>0.8900285830534928</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8652401317337149</v>
+        <v>0.8648294962974316</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9110262536149543</v>
+        <v>0.910729250438066</v>
       </c>
     </row>
     <row r="18">
@@ -1826,19 +1826,19 @@
         <v>2774</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>948</v>
+        <v>960</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>6527</v>
+        <v>6054</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01110951127950358</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.003795046934400692</v>
+        <v>0.003843508908848799</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02613762415524878</v>
+        <v>0.02424100437317255</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1</v>
@@ -1850,7 +1850,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>2095</v>
+        <v>2118</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.001477360117148949</v>
@@ -1859,7 +1859,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.008329521295535639</v>
+        <v>0.008419816542057668</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>6</v>
@@ -1868,19 +1868,19 @@
         <v>3146</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>7432</v>
+        <v>6535</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.006275904518454715</v>
+        <v>0.006275904518454716</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.002583553663371793</v>
+        <v>0.00257405058261432</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01482643134672365</v>
+        <v>0.01303661228990065</v>
       </c>
     </row>
     <row r="20">
@@ -1897,19 +1897,19 @@
         <v>246961</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>243208</v>
+        <v>243681</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>248787</v>
+        <v>248775</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9888904887204965</v>
+        <v>0.9888904887204963</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9738623758447509</v>
+        <v>0.9757589956268276</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9962049530655993</v>
+        <v>0.9961564910911511</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>439</v>
@@ -1918,16 +1918,16 @@
         <v>251188</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>249465</v>
+        <v>249442</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>251560</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9985226398828509</v>
+        <v>0.9985226398828511</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.991670478704465</v>
+        <v>0.9915801834579422</v>
       </c>
       <c r="P20" s="6" t="n">
         <v>1</v>
@@ -1939,19 +1939,19 @@
         <v>498148</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>493862</v>
+        <v>494759</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>499999</v>
+        <v>500004</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9937240954815453</v>
+        <v>0.9937240954815454</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9851735686532765</v>
+        <v>0.9869633877100993</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9974164463366282</v>
+        <v>0.9974259494173856</v>
       </c>
     </row>
     <row r="21">
@@ -2043,19 +2043,19 @@
         <v>47653</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>35255</v>
+        <v>35297</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>63672</v>
+        <v>64051</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.06830279869349226</v>
+        <v>0.06830279869349228</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05053224514130342</v>
+        <v>0.05059201174102108</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.09126195033618005</v>
+        <v>0.09180597623443662</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>69</v>
@@ -2064,19 +2064,19 @@
         <v>51800</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>40453</v>
+        <v>40585</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>65719</v>
+        <v>66004</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.06986947254936314</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05456467470035146</v>
+        <v>0.05474182424441339</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08864332894933782</v>
+        <v>0.0890277010112077</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>113</v>
@@ -2085,19 +2085,19 @@
         <v>99454</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>82719</v>
+        <v>81432</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>118970</v>
+        <v>119919</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.06910992671196096</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05748098154817815</v>
+        <v>0.05658685202935147</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0826717506303857</v>
+        <v>0.0833312938837283</v>
       </c>
     </row>
     <row r="23">
@@ -2114,19 +2114,19 @@
         <v>650027</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>634008</v>
+        <v>633629</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>662425</v>
+        <v>662383</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.931697201306508</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9087380496638199</v>
+        <v>0.9081940237655631</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9494677548586966</v>
+        <v>0.9494079882589791</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>854</v>
@@ -2135,19 +2135,19 @@
         <v>689586</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>675667</v>
+        <v>675382</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>700933</v>
+        <v>700801</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9301305274506368</v>
+        <v>0.9301305274506371</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9113566710506622</v>
+        <v>0.9109722989887923</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9454353252996485</v>
+        <v>0.9452581757555863</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1391</v>
@@ -2156,19 +2156,19 @@
         <v>1339612</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1320096</v>
+        <v>1319147</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1356347</v>
+        <v>1357634</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9308900732880391</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9173282493696142</v>
+        <v>0.9166687061162717</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9425190184518217</v>
+        <v>0.9434131479706487</v>
       </c>
     </row>
     <row r="24">
@@ -2260,19 +2260,19 @@
         <v>26386</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>19089</v>
+        <v>17721</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>39405</v>
+        <v>36768</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03422106098570215</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02475710091812886</v>
+        <v>0.02298287854653437</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05110578504639914</v>
+        <v>0.04768602809153554</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>30</v>
@@ -2281,19 +2281,19 @@
         <v>21228</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>14868</v>
+        <v>15112</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>30725</v>
+        <v>30562</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.02619790902479648</v>
+        <v>0.02619790902479647</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0183483921802442</v>
+        <v>0.01864912124195825</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03791799935691375</v>
+        <v>0.03771699827225013</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>58</v>
@@ -2302,19 +2302,19 @@
         <v>47614</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>37415</v>
+        <v>36757</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>61343</v>
+        <v>63068</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.0301098975986446</v>
+        <v>0.03010989759864459</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02365991386036529</v>
+        <v>0.02324408166350165</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03879157074744675</v>
+        <v>0.03988213974029527</v>
       </c>
     </row>
     <row r="26">
@@ -2331,19 +2331,19 @@
         <v>744664</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>731645</v>
+        <v>734282</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>751961</v>
+        <v>753329</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.9657789390142979</v>
+        <v>0.9657789390142977</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9488942149536008</v>
+        <v>0.952313971908466</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9752428990818711</v>
+        <v>0.977017121453466</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1009</v>
@@ -2352,19 +2352,19 @@
         <v>789079</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>779582</v>
+        <v>779745</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>795439</v>
+        <v>795195</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.9738020909752036</v>
+        <v>0.9738020909752034</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9620820006430862</v>
+        <v>0.9622830017277498</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9816516078197557</v>
+        <v>0.9813508787580421</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1725</v>
@@ -2373,19 +2373,19 @@
         <v>1533743</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1520014</v>
+        <v>1518289</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1543942</v>
+        <v>1544600</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.9698901024013555</v>
+        <v>0.9698901024013552</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9612084292525535</v>
+        <v>0.9601178602597047</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9763400861396346</v>
+        <v>0.9767559183364983</v>
       </c>
     </row>
     <row r="27">
@@ -2477,19 +2477,19 @@
         <v>155262</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>130902</v>
+        <v>131897</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>179015</v>
+        <v>180762</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.04569654256769697</v>
+        <v>0.04569654256769698</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.03852676153307166</v>
+        <v>0.03881968156981967</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.05268756337736302</v>
+        <v>0.05320177167037374</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>253</v>
@@ -2498,19 +2498,19 @@
         <v>152143</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>132732</v>
+        <v>135275</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>172768</v>
+        <v>171994</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.0419652390601206</v>
+        <v>0.04196523906012059</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.03661132277906447</v>
+        <v>0.03731273843166451</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.04765435471996157</v>
+        <v>0.04744086703201664</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>425</v>
@@ -2519,19 +2519,19 @@
         <v>307405</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>276289</v>
+        <v>278142</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>336091</v>
+        <v>339978</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.04377038503102697</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.03933987689343808</v>
+        <v>0.03960369249466342</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.04785496954853194</v>
+        <v>0.04840834539789479</v>
       </c>
     </row>
     <row r="29">
@@ -2548,19 +2548,19 @@
         <v>3242416</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3218663</v>
+        <v>3216916</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3266776</v>
+        <v>3265781</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.9543034574323029</v>
+        <v>0.954303457432303</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.947312436622637</v>
+        <v>0.9467982283296262</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9614732384669282</v>
+        <v>0.9611803184301801</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>4964</v>
@@ -2569,19 +2569,19 @@
         <v>3473305</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3452680</v>
+        <v>3453454</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3492716</v>
+        <v>3490173</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.9580347609398794</v>
+        <v>0.9580347609398793</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9523456452800386</v>
+        <v>0.9525591329679836</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9633886772209357</v>
+        <v>0.9626872615683356</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>8045</v>
@@ -2590,19 +2590,19 @@
         <v>6715720</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6687034</v>
+        <v>6683147</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6746836</v>
+        <v>6744983</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9562296149689731</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9521450304514681</v>
+        <v>0.9515916546021054</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.960660123106562</v>
+        <v>0.9603963075053366</v>
       </c>
     </row>
     <row r="30">
